--- a/documents/paper_work/04-Product_Backlog_A080-Airlines_Ticket_Reservation_System.xlsx
+++ b/documents/paper_work/04-Product_Backlog_A080-Airlines_Ticket_Reservation_System.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="190">
   <si>
     <t xml:space="preserve"> Airline Ticket Reservation System</t>
   </si>
@@ -851,10 +851,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -1005,8 +1005,62 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1020,51 +1074,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1073,16 +1082,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1096,11 +1104,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1112,14 +1119,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1135,15 +1143,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,7 +1218,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,43 +1272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,7 +1290,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,25 +1320,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,55 +1368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,13 +1386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,20 +1552,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1594,6 +1591,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1605,6 +1611,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1623,179 +1649,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4463,10 +4463,10 @@
   <sheetPr/>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="12"/>
@@ -4897,7 +4897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" ht="48" spans="1:11">
+    <row r="14" ht="48" spans="1:12">
       <c r="A14" s="20" t="s">
         <v>89</v>
       </c>
@@ -4922,9 +4922,20 @@
       <c r="H14" s="20">
         <v>5</v>
       </c>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" ht="36" spans="1:11">
+      <c r="I14" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="21">
+        <v>2</v>
+      </c>
+      <c r="K14" s="21">
+        <v>2</v>
+      </c>
+      <c r="L14" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" ht="36" spans="1:12">
       <c r="A15" s="20" t="s">
         <v>93</v>
       </c>
@@ -4940,7 +4951,18 @@
       <c r="H15" s="20">
         <v>3</v>
       </c>
-      <c r="K15" s="21"/>
+      <c r="I15" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="21">
+        <v>2</v>
+      </c>
+      <c r="K15" s="21">
+        <v>2</v>
+      </c>
+      <c r="L15" s="20">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" ht="36" spans="1:12">
       <c r="A16" s="20" t="s">
@@ -5152,7 +5174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="36" spans="1:11">
+    <row r="22" ht="36" spans="1:12">
       <c r="A22" s="20" t="s">
         <v>116</v>
       </c>
@@ -5168,9 +5190,20 @@
       <c r="H22" s="20">
         <v>5</v>
       </c>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" ht="60" spans="1:11">
+      <c r="I22" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="21">
+        <v>2</v>
+      </c>
+      <c r="K22" s="21">
+        <v>2</v>
+      </c>
+      <c r="L22" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" ht="60" spans="1:12">
       <c r="A23" s="20" t="s">
         <v>118</v>
       </c>
@@ -5186,9 +5219,20 @@
       <c r="H23" s="20">
         <v>5</v>
       </c>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" ht="24" spans="1:11">
+      <c r="I23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="21">
+        <v>2</v>
+      </c>
+      <c r="K23" s="21">
+        <v>2</v>
+      </c>
+      <c r="L23" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" ht="24" spans="1:12">
       <c r="A24" s="20" t="s">
         <v>120</v>
       </c>
@@ -5204,9 +5248,20 @@
       <c r="H24" s="20">
         <v>3</v>
       </c>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" ht="48" spans="1:11">
+      <c r="I24" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="21">
+        <v>2</v>
+      </c>
+      <c r="K24" s="21">
+        <v>2</v>
+      </c>
+      <c r="L24" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" ht="48" spans="1:12">
       <c r="A25" s="20" t="s">
         <v>122</v>
       </c>
@@ -5222,9 +5277,20 @@
       <c r="H25" s="20">
         <v>3</v>
       </c>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" ht="84" spans="1:11">
+      <c r="I25" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="21">
+        <v>2</v>
+      </c>
+      <c r="K25" s="21">
+        <v>2</v>
+      </c>
+      <c r="L25" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" ht="84" spans="1:12">
       <c r="A26" s="20" t="s">
         <v>124</v>
       </c>
@@ -5249,7 +5315,18 @@
       <c r="H26" s="20">
         <v>3</v>
       </c>
-      <c r="K26" s="21"/>
+      <c r="I26" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="21">
+        <v>2</v>
+      </c>
+      <c r="K26" s="21">
+        <v>2</v>
+      </c>
+      <c r="L26" s="20">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" ht="72" spans="1:11">
       <c r="A27" s="20" t="s">
@@ -5278,7 +5355,7 @@
       </c>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" ht="48" spans="1:11">
+    <row r="28" ht="48" spans="1:12">
       <c r="A28" s="20" t="s">
         <v>135</v>
       </c>
@@ -5303,9 +5380,20 @@
       <c r="H28" s="20">
         <v>5</v>
       </c>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" ht="48" spans="1:11">
+      <c r="I28" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="21">
+        <v>2</v>
+      </c>
+      <c r="K28" s="21">
+        <v>2</v>
+      </c>
+      <c r="L28" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" ht="48" spans="1:12">
       <c r="A29" s="20" t="s">
         <v>140</v>
       </c>
@@ -5330,7 +5418,18 @@
       <c r="H29" s="20">
         <v>5</v>
       </c>
-      <c r="K29" s="21"/>
+      <c r="I29" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="21">
+        <v>2</v>
+      </c>
+      <c r="K29" s="21">
+        <v>2</v>
+      </c>
+      <c r="L29" s="20">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" ht="132" spans="1:12">
       <c r="A30" s="20" t="s">

--- a/documents/paper_work/04-Product_Backlog_A080-Airlines_Ticket_Reservation_System.xlsx
+++ b/documents/paper_work/04-Product_Backlog_A080-Airlines_Ticket_Reservation_System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="8235" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="8235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="7" r:id="rId1"/>
@@ -851,10 +851,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -1043,24 +1043,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1074,31 +1058,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,13 +1072,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1125,9 +1080,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,6 +1098,52 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,7 +1230,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,7 +1260,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,7 +1320,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,25 +1338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,85 +1356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,6 +1375,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,7 +1571,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1591,26 +1591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1636,16 +1627,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1654,118 +1654,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="21" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1777,13 +1777,13 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
@@ -1825,7 +1825,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1844,7 +1844,7 @@
       <alignment vertical="top"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1855,7 +1855,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1866,7 +1866,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1877,196 +1877,196 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="1" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="2" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="1" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="2" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="10" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="20" fillId="10" borderId="6" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="9" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="15" fontId="6" fillId="9" borderId="6" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="14" fillId="9" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="58" fontId="14" fillId="9" borderId="0" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="2" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -4466,7 +4466,7 @@
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="12"/>
